--- a/Lectures/Lecture 17/Oakdale-1.xlsx
+++ b/Lectures/Lecture 17/Oakdale-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianaoc/Documents/Courses/STOR 305/Fall 2019/Excel spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0608D64D-8D72-824C-926E-6D0E233645C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02E10FB-014E-4A9D-B8A7-314A36DFA145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1140" windowWidth="19500" windowHeight="15160" activeTab="2" xr2:uid="{1C00D6E7-DB22-9C48-A1F3-760AD5C5C80E}"/>
+    <workbookView xWindow="5690" yWindow="3200" windowWidth="2840" windowHeight="670" xr2:uid="{1C00D6E7-DB22-9C48-A1F3-760AD5C5C80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Priority 1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
@@ -66,6 +67,7 @@
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Priority 1'!$A$41</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Priority 2'!$A$42</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Priority 3'!$A$43</definedName>
@@ -120,14 +122,22 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -257,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -858,22 +868,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5B376D-75FF-FE46-ACCE-7B534CA7A12F}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -909,25 +919,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="11">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="C4" s="12">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="D4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="13">
         <v>0</v>
       </c>
       <c r="F4" s="30">
         <f>SUM(B4:E4)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="24"/>
       <c r="I4" s="2" t="s">
@@ -946,7 +956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -954,17 +964,17 @@
         <v>0</v>
       </c>
       <c r="C5" s="15">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D5" s="15">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E5" s="16">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" ref="F5:F7" si="0">SUM(B5:E5)</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G5" s="24"/>
       <c r="I5" s="2" t="s">
@@ -983,7 +993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -994,14 +1004,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="15">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="E6" s="16">
         <v>0</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="G6" s="24"/>
       <c r="I6" s="2" t="s">
@@ -1020,12 +1030,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
@@ -1034,11 +1044,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="19">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G7" s="24"/>
       <c r="I7" s="3" t="s">
@@ -1057,25 +1067,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1">
+    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="32">
         <f>SUM(B4:B7)</f>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="C8" s="32">
         <f t="shared" ref="C8:E8" si="1">SUM(C4:C7)</f>
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="D8" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1116</v>
       </c>
       <c r="E8" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -1085,7 +1095,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1">
+    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -1099,7 +1109,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1120,12 +1130,12 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C12" s="12">
         <v>0</v>
@@ -1138,33 +1148,33 @@
       </c>
       <c r="F12" s="30">
         <f>SUM(B12:E12)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="15">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="D13" s="15">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="E13" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" ref="F13:F15" si="2">SUM(B13:E13)</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1175,23 +1185,23 @@
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C15" s="18">
         <v>0</v>
@@ -1200,41 +1210,41 @@
         <v>0</v>
       </c>
       <c r="E15" s="19">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="5">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" ref="C16:E16" si="3">SUM(C12:C15)</f>
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -1252,7 +1262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <f>0.4*B8-0.6*B16</f>
         <v>0</v>
@@ -1261,11 +1271,11 @@
         <v>0</v>
       </c>
       <c r="C20" s="37">
-        <v>0</v>
+        <v>1.7097434579227411E-13</v>
       </c>
       <c r="D20" s="42">
         <f>A20+B20-C20</f>
-        <v>0</v>
+        <v>-1.7097434579227411E-13</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>12</v>
@@ -1277,7 +1287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <f>0.4*C8-0.6*C16</f>
         <v>0</v>
@@ -1302,7 +1312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f>0.4*D8-0.6*D16</f>
         <v>0</v>
@@ -1327,7 +1337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <f>0.4*E8-0.6*E16</f>
         <v>0</v>
@@ -1352,20 +1362,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="38">
         <f>SUMPRODUCT(B4:E7,J4:M7)+SUMPRODUCT(B12:E15,J4:M7)</f>
-        <v>0</v>
+        <v>30152</v>
       </c>
       <c r="B24" s="39">
         <v>0</v>
       </c>
       <c r="C24" s="39">
-        <v>0</v>
+        <v>152.0000000000143</v>
       </c>
       <c r="D24" s="48">
         <f>A24+B24-C24</f>
-        <v>0</v>
+        <v>29999.999999999985</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>12</v>
@@ -1377,20 +1387,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f>B8+B16</f>
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="B25" s="37">
-        <v>0</v>
+        <v>593.99999999999955</v>
       </c>
       <c r="C25" s="37">
         <v>0</v>
       </c>
       <c r="D25" s="42">
         <f>A25+B25-C25</f>
-        <v>0</v>
+        <v>1363.9999999999995</v>
       </c>
       <c r="E25" s="42" t="s">
         <v>12</v>
@@ -1402,20 +1412,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <f>C8+C16</f>
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="B26" s="35">
-        <v>0</v>
+        <v>6.0000000000001705</v>
       </c>
       <c r="C26" s="14">
         <v>0</v>
       </c>
       <c r="D26" s="44">
         <f>A26+B26-C26</f>
-        <v>0</v>
+        <v>1136.0000000000002</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>12</v>
@@ -1427,20 +1437,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <f>D8+D16</f>
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="B27" s="35">
         <v>0</v>
       </c>
       <c r="C27" s="14">
-        <v>0</v>
+        <v>723.9999999999992</v>
       </c>
       <c r="D27" s="44">
         <f t="shared" ref="D27:D28" si="5">A27+B27-C27</f>
-        <v>0</v>
+        <v>1136.0000000000009</v>
       </c>
       <c r="E27" s="44" t="s">
         <v>12</v>
@@ -1452,20 +1462,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <f>E8+E16</f>
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="B28" s="36">
-        <v>0</v>
+        <v>123.99999999999993</v>
       </c>
       <c r="C28" s="18">
         <v>0</v>
       </c>
       <c r="D28" s="46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1364</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>12</v>
@@ -1477,10 +1487,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D29" s="42">
         <f>F4</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="42" t="s">
         <v>12</v>
@@ -1492,10 +1502,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D30" s="44">
         <f>F12</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>12</v>
@@ -1507,10 +1517,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D31" s="44">
         <f>F5</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E31" s="44" t="s">
         <v>12</v>
@@ -1522,10 +1532,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="44">
         <f>F13</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E32" s="44" t="s">
         <v>12</v>
@@ -1537,10 +1547,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D33" s="44">
         <f>F6</f>
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>12</v>
@@ -1552,10 +1562,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D34" s="44">
         <f>F14</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E34" s="44" t="s">
         <v>12</v>
@@ -1567,10 +1577,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D35" s="44">
         <f>F7</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E35" s="44" t="s">
         <v>12</v>
@@ -1582,10 +1592,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D36" s="46">
         <f>F15</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E36" s="46" t="s">
         <v>12</v>
@@ -1597,20 +1607,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="50">
         <f>SUM(B20:C23)</f>
-        <v>0</v>
+        <v>1.7097434579227411E-13</v>
       </c>
     </row>
   </sheetData>
@@ -1622,23 +1632,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95071F-83FE-7843-ADC1-8CAFBC53DC52}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1785,7 +1795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1822,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1">
+    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1860,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1">
+    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -1864,7 +1874,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1885,7 +1895,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1907,7 +1917,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1929,7 +1939,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1961,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1973,7 +1983,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>9</v>
       </c>
@@ -1994,12 +2004,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -2017,7 +2027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <f>0.4*B8-0.6*B16</f>
         <v>0</v>
@@ -2042,7 +2052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <f>0.4*C8-0.6*C16</f>
         <v>0</v>
@@ -2067,7 +2077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f>0.4*D8-0.6*D16</f>
         <v>0</v>
@@ -2092,7 +2102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <f>0.4*E8-0.6*E16</f>
         <v>0</v>
@@ -2117,7 +2127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="38">
         <f>SUMPRODUCT(B4:E7,J4:M7)+SUMPRODUCT(B12:E15,J4:M7)</f>
         <v>0</v>
@@ -2142,7 +2152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f>B8+B16</f>
         <v>0</v>
@@ -2167,7 +2177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <f>C8+C16</f>
         <v>0</v>
@@ -2192,7 +2202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <f>D8+D16</f>
         <v>0</v>
@@ -2217,7 +2227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <f>E8+E16</f>
         <v>0</v>
@@ -2242,7 +2252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D29" s="42">
         <f>F4</f>
         <v>0</v>
@@ -2257,7 +2267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D30" s="44">
         <f>F12</f>
         <v>0</v>
@@ -2272,7 +2282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D31" s="44">
         <f>F5</f>
         <v>0</v>
@@ -2287,7 +2297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="44">
         <f>F13</f>
         <v>0</v>
@@ -2302,7 +2312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D33" s="44">
         <f>F6</f>
         <v>0</v>
@@ -2317,7 +2327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D34" s="44">
         <f>F14</f>
         <v>0</v>
@@ -2332,7 +2342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D35" s="44">
         <f>F7</f>
         <v>0</v>
@@ -2347,7 +2357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D36" s="46">
         <f>F15</f>
         <v>0</v>
@@ -2362,7 +2372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D37" s="51">
         <f>SUM(B20:C23)</f>
         <v>0</v>
@@ -2377,17 +2387,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="50">
         <f>C24</f>
         <v>0</v>
@@ -2402,21 +2412,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92812E0B-DC34-904D-8CB1-F97FCF687285}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="7" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2489,7 +2499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2563,7 +2573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2600,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1">
+    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
@@ -2628,7 +2638,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1">
+    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -2642,7 +2652,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2663,7 +2673,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2685,7 +2695,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2707,7 +2717,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2729,7 +2739,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -2751,7 +2761,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>9</v>
       </c>
@@ -2772,12 +2782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -2795,7 +2805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <f>0.4*B8-0.6*B16</f>
         <v>0</v>
@@ -2820,7 +2830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <f>0.4*C8-0.6*C16</f>
         <v>0</v>
@@ -2845,7 +2855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f>0.4*D8-0.6*D16</f>
         <v>0</v>
@@ -2870,7 +2880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <f>0.4*E8-0.6*E16</f>
         <v>0</v>
@@ -2895,7 +2905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="38">
         <f>SUMPRODUCT(B4:E7,J4:M7)+SUMPRODUCT(B12:E15,J4:M7)</f>
         <v>0</v>
@@ -2920,7 +2930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f>B8+B16</f>
         <v>0</v>
@@ -2945,7 +2955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <f>C8+C16</f>
         <v>0</v>
@@ -2970,7 +2980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <f>D8+D16</f>
         <v>0</v>
@@ -2995,7 +3005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <f>E8+E16</f>
         <v>0</v>
@@ -3020,7 +3030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D29" s="42">
         <f>F4</f>
         <v>0</v>
@@ -3035,7 +3045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D30" s="44">
         <f>F12</f>
         <v>0</v>
@@ -3050,7 +3060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D31" s="44">
         <f>F5</f>
         <v>0</v>
@@ -3065,7 +3075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="44">
         <f>F13</f>
         <v>0</v>
@@ -3080,7 +3090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D33" s="44">
         <f>F6</f>
         <v>0</v>
@@ -3095,7 +3105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D34" s="44">
         <f>F14</f>
         <v>0</v>
@@ -3110,7 +3120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D35" s="44">
         <f>F7</f>
         <v>0</v>
@@ -3125,7 +3135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D36" s="46">
         <f>F15</f>
         <v>0</v>
@@ -3140,7 +3150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D37" s="51">
         <f>SUM(B20:C23)</f>
         <v>0</v>
@@ -3155,7 +3165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D38" s="51">
         <f>C24</f>
         <v>0</v>
@@ -3170,17 +3180,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="50">
         <f>SUM(B25:C28)</f>
         <v>0</v>
